--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il17b-Il17rb.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.914198</v>
+        <v>1.199219</v>
       </c>
       <c r="N2">
-        <v>5.742594</v>
+        <v>3.597657</v>
       </c>
       <c r="O2">
-        <v>0.254259299329072</v>
+        <v>0.1760050710731031</v>
       </c>
       <c r="P2">
-        <v>0.254259299329072</v>
+        <v>0.1760050710731032</v>
       </c>
       <c r="Q2">
-        <v>0.124570901312</v>
+        <v>0.07804197460266667</v>
       </c>
       <c r="R2">
-        <v>1.121138111808</v>
+        <v>0.7023777714239999</v>
       </c>
       <c r="S2">
-        <v>0.254259299329072</v>
+        <v>0.1760050710731031</v>
       </c>
       <c r="T2">
-        <v>0.254259299329072</v>
+        <v>0.1760050710731032</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>10.667482</v>
       </c>
       <c r="O3">
-        <v>0.472313818271932</v>
+        <v>0.5218760230842041</v>
       </c>
       <c r="P3">
-        <v>0.472313818271932</v>
+        <v>0.5218760230842042</v>
       </c>
       <c r="Q3">
         <v>0.2314037606471111</v>
@@ -632,10 +632,10 @@
         <v>2.082633845824</v>
       </c>
       <c r="S3">
-        <v>0.472313818271932</v>
+        <v>0.5218760230842041</v>
       </c>
       <c r="T3">
-        <v>0.472313818271932</v>
+        <v>0.5218760230842042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.058501666666666</v>
+        <v>2.058501666666667</v>
       </c>
       <c r="N4">
-        <v>6.175504999999999</v>
+        <v>6.175505</v>
       </c>
       <c r="O4">
-        <v>0.273426882398996</v>
+        <v>0.3021189058426926</v>
       </c>
       <c r="P4">
-        <v>0.273426882398996</v>
+        <v>0.3021189058426926</v>
       </c>
       <c r="Q4">
         <v>0.1339617991288889</v>
@@ -694,10 +694,10 @@
         <v>1.20565619216</v>
       </c>
       <c r="S4">
-        <v>0.273426882398996</v>
+        <v>0.3021189058426926</v>
       </c>
       <c r="T4">
-        <v>0.273426882398996</v>
+        <v>0.3021189058426926</v>
       </c>
     </row>
   </sheetData>
